--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
@@ -555,21 +555,21 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12:51 - 1st Half</t>
+          <t>11:35 - 1st Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15:48 - 2nd Half</t>
+          <t>15:26 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15:48 - 2nd Half</t>
+          <t>15:26 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12:51 - 1st Half</t>
+          <t>11:35 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -799,17 +799,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15:48 - 2nd Half</t>
+          <t>15:26 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -821,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -860,11 +860,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:48 - 2nd Half</t>
+          <t>15:26 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
         <v>16</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -921,14 +921,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15:48 - 2nd Half</t>
+          <t>15:26 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -982,7 +982,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12:51 - 1st Half</t>
+          <t>11:35 - 1st Half</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12:51 - 1st Half</t>
+          <t>11:35 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1104,11 +1104,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15:48 - 2nd Half</t>
+          <t>15:26 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -1165,11 +1165,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12:51 - 1st Half</t>
+          <t>11:35 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12:51 - 1st Half</t>
+          <t>11:35 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15:48 - 2nd Half</t>
+          <t>15:26 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12:51 - 1st Half</t>
+          <t>15:26 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1394,35 +1394,35 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15:48 - 2nd Half</t>
+          <t>11:35 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1470,17 +1470,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12:51 - 1st Half</t>
+          <t>11:35 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1531,20 +1531,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15:48 - 2nd Half</t>
+          <t>15:26 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
+        <v>21</v>
+      </c>
+      <c r="I18" t="n">
         <v>17</v>
-      </c>
-      <c r="I18" t="n">
-        <v>13</v>
       </c>
       <c r="J18" t="n">
         <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -1592,17 +1592,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15:48 - 2nd Half</t>
+          <t>15:26 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -1653,17 +1653,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15:48 - 2nd Half</t>
+          <t>15:26 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15:48 - 2nd Half</t>
+          <t>15:26 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1727,7 +1727,7 @@
         <v>7</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12:51 - 1st Half</t>
+          <t>11:35 - 1st Half</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1836,14 +1836,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15:48 - 2nd Half</t>
+          <t>15:26 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
         <v>2</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1897,14 +1897,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12:51 - 1st Half</t>
+          <t>11:35 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1958,11 +1958,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15:48 - 2nd Half</t>
+          <t>15:26 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" t="n">
         <v>11</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -2019,17 +2019,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15:48 - 2nd Half</t>
+          <t>15:26 - 2nd Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I26" t="n">
         <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -2080,17 +2080,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12:51 - 1st Half</t>
+          <t>11:35 - 1st Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -2126,12 +2126,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Charles Bediako</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2141,17 +2141,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12:51 - 1st Half</t>
+          <t>11:35 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
+        <v>6</v>
+      </c>
+      <c r="I28" t="n">
         <v>4</v>
       </c>
-      <c r="I28" t="n">
-        <v>6</v>
-      </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>5</v>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Charles Bediako</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2202,17 +2202,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12:51 - 1st Half</t>
+          <t>11:35 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -2248,32 +2248,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15:48 - 2nd Half</t>
+          <t>11:35 - 1st Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2309,22 +2309,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12:51 - 1st Half</t>
+          <t>15:26 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2346,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -2385,14 +2385,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12:51 - 1st Half</t>
+          <t>11:35 - 1st Half</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12:51 - 1st Half</t>
+          <t>11:35 - 1st Half</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -2557,11 +2557,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2570,11 +2570,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3:47 - 2nd Half</t>
+          <t>1:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3:47 - 2nd Half</t>
+          <t>1:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -799,11 +799,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3:47 - 2nd Half</t>
+          <t>1:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="n">
         <v>6</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -860,7 +860,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3:47 - 2nd Half</t>
+          <t>1:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -921,17 +921,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3:47 - 2nd Half</t>
+          <t>1:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3:47 - 2nd Half</t>
+          <t>1:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3:47 - 2nd Half</t>
+          <t>1:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3:47 - 2nd Half</t>
+          <t>1:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1531,17 +1531,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3:47 - 2nd Half</t>
+          <t>1:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>9</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3:47 - 2nd Half</t>
+          <t>1:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I19" t="n">
         <v>13</v>
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3:47 - 2nd Half</t>
+          <t>1:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1714,17 +1714,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3:47 - 2nd Half</t>
+          <t>1:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I21" t="n">
         <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K21" t="n">
         <v>4</v>
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3:47 - 2nd Half</t>
+          <t>1:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1861,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -1901,10 +1901,10 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3:47 - 2nd Half</t>
+          <t>1:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3:47 - 2nd Half</t>
+          <t>1:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -2044,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3:47 - 2nd Half</t>
+          <t>1:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -2605,11 +2605,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2618,7 +2618,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="34" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>19:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -565,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>5</v>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1:01 - 2nd Half</t>
+          <t>0:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1:01 - 2nd Half</t>
+          <t>0:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -723,35 +723,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Tue, January 27th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -774,57 +774,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1:01 - 2nd Half</t>
+          <t>19:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -840,17 +840,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -860,32 +860,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1:01 - 2nd Half</t>
+          <t>0:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>2</v>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
         <v>2</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
       <c r="O7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -906,12 +906,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -921,20 +921,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1:01 - 2nd Half</t>
+          <t>0:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I8" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>32</v>
@@ -957,48 +957,48 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>0:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1018,45 +1018,45 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Tue, January 27th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1084,40 +1084,40 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1:01 - 2nd Half</t>
+          <t>19:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1165,20 +1165,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>19:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
         <v>3</v>
       </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1211,47 +1211,47 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Tue, January 27th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1272,35 +1272,35 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1:01 - 2nd Half</t>
+          <t>19:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
         <v>8</v>
       </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1348,32 +1348,32 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1:01 - 2nd Half</t>
+          <t>0:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
         <v>3</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1394,32 +1394,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Tue, January 27th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1450,12 +1450,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1470,23 +1470,23 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>19:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1516,38 +1516,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1:01 - 2nd Half</t>
+          <t>Tue, January 27th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="I18" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1577,12 +1577,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,23 +1592,23 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1:01 - 2nd Half</t>
+          <t>0:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1653,32 +1653,32 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1:01 - 2nd Half</t>
+          <t>0:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="n">
         <v>3</v>
       </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1699,47 +1699,47 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1:01 - 2nd Half</t>
+          <t>19:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1760,12 +1760,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Latrell Wrightsell</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1775,32 +1775,32 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>19:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>2</v>
       </c>
-      <c r="K22" t="n">
-        <v>2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
       <c r="O22" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1821,12 +1821,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1836,20 +1836,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1:01 - 2nd Half</t>
+          <t>0:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I23" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1882,32 +1882,32 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Tue, January 27th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1916,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1958,32 +1958,32 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1:01 - 2nd Half</t>
+          <t>0:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>12</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2004,12 +2004,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2019,20 +2019,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1:01 - 2nd Half</t>
+          <t>0:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2041,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -2055,48 +2055,48 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Charles Bediako</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Tue, January 27th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2126,47 +2126,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>0:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
+        <v>18</v>
+      </c>
+      <c r="I28" t="n">
         <v>9</v>
       </c>
-      <c r="I28" t="n">
-        <v>8</v>
-      </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2202,32 +2202,32 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>19:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" t="n">
         <v>2</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -2238,42 +2238,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>0:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>2</v>
@@ -2288,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -2299,22 +2299,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2324,17 +2324,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>19:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2360,45 +2360,45 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Tue, January 27th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -2421,42 +2421,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1:01 - 2nd Half</t>
+          <t>Tue, January 27th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2465,13 +2465,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -2482,57 +2482,972 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>Tar</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Karter Knox</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0:11 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>12</v>
+      </c>
+      <c r="I34" t="n">
+        <v>11</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>Undrafted</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Charles Bediako</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>19:41 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>15</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Malique Ewin</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0:11 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>15</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Shawn Phillips Jr.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>19:41 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>T.O. Barrett</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>19:41 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+      <c r="I38" t="n">
+        <v>12</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>19:41 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>AK Okereke</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Tue, January 27th at 9:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Trent Pierce</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>19:41 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Trent Burns</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>19:41 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>D.J. Wagner</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0:11 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Tue, January 27th at 9:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>19:41 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Noah Williamson</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>19:41 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Andrija Jelavic</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Tue, January 27th at 9:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Chandler Bing</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Tue, January 27th at 9:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>Sebastian Mack</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>MIZ</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>MIZ@ALA</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Halftime</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>19:41 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
         <v>-1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2583,10 +3498,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2596,33 +3511,33 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2631,14 +3546,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2648,10 +3563,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2661,10 +3576,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,14 +555,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
         <v>30</v>
@@ -616,17 +616,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15:07 - 1st Half</t>
+          <t>18:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I3" t="n">
         <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -635,13 +635,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -799,17 +799,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -1043,20 +1043,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15:07 - 1st Half</t>
+          <t>18:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -1104,17 +1104,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15:07 - 1st Half</t>
+          <t>18:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1165,11 +1165,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
         <v>5</v>
@@ -1181,7 +1181,7 @@
         <v>8</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1409,23 +1409,23 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15:07 - 1st Half</t>
+          <t>18:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -1434,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -1445,22 +1445,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1470,32 +1470,32 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1516,38 +1516,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15:07 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -1572,43 +1572,43 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -1638,35 +1638,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -1699,17 +1699,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1718,28 +1718,28 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -1760,47 +1760,47 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1811,27 +1811,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1840,28 +1840,28 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>3</v>
       </c>
-      <c r="K23" t="n">
-        <v>9</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
       <c r="O23" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -1882,47 +1882,47 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15:07 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -1938,52 +1938,52 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2023,17 +2023,17 @@
         </is>
       </c>
       <c r="H26" t="n">
+        <v>12</v>
+      </c>
+      <c r="I26" t="n">
+        <v>13</v>
+      </c>
+      <c r="J26" t="n">
+        <v>6</v>
+      </c>
+      <c r="K26" t="n">
         <v>3</v>
       </c>
-      <c r="I26" t="n">
-        <v>4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
@@ -2041,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -2055,57 +2055,57 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15:07 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -2121,52 +2121,52 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Latrell Wrightsell</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>18:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I28" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
         <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -2187,17 +2187,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2206,28 +2206,28 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I29" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J29" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -2238,57 +2238,57 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15:07 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K30" t="n">
         <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O30" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -2309,47 +2309,47 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>18:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
@@ -2370,17 +2370,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2389,28 +2389,28 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I32" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -2431,47 +2431,47 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15:07 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -2487,52 +2487,52 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2553,32 +2553,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Charles Bediako</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I35" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2587,13 +2587,13 @@
         <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
@@ -2614,17 +2614,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Charles Bediako</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I36" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -2675,35 +2675,35 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J37" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2751,32 +2751,32 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I38" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -2797,47 +2797,47 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15:07 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O39" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
@@ -2858,47 +2858,47 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>18:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -2919,47 +2919,47 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>18:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>5</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -2980,33 +2980,33 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15:07 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H42" t="n">
+        <v>6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6</v>
+      </c>
+      <c r="J42" t="n">
         <v>3</v>
       </c>
-      <c r="I42" t="n">
-        <v>4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3056,32 +3056,32 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15:07 - 1st Half</t>
+          <t>18:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -3102,32 +3102,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15:07 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -3163,32 +3163,32 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15:07 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -3200,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3239,11 +3239,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15:07 - 1st Half</t>
+          <t>18:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -3285,12 +3285,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>Preston Murphy Jr.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3300,20 +3300,20 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Sebastian Mack</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3365,16 +3365,16 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -3383,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -3407,29 +3407,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>18:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -3468,47 +3468,47 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>18:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -3529,26 +3529,26 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Jacob Martin</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15:07 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Luke Northweather</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3605,11 +3605,11 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -3666,17 +3666,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15:07 - 1st Half</t>
+          <t>18:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -3712,32 +3712,32 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15:18 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -3773,47 +3773,291 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Noah Williamson</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Brandon Garrison</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>18:54 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>Jasper Johnson</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>UK@VAN</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>15:07 - 1st Half</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>18:54 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
         <v>-3</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>1</v>
-      </c>
-      <c r="O55" t="n">
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Annor Boateng</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3864,7 +4108,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -3877,7 +4121,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -3890,7 +4134,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -3903,7 +4147,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -3912,27 +4156,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3942,7 +4186,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
@@ -434,7 +434,7 @@
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -616,7 +616,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>13:48 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H61" t="n">

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
@@ -2349,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
@@ -2959,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
